--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Plxnd1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Plxnd1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7272463333333333</v>
+        <v>0.629875</v>
       </c>
       <c r="H2">
-        <v>2.181739</v>
+        <v>1.889625</v>
       </c>
       <c r="I2">
-        <v>0.05881642346679699</v>
+        <v>0.05197722648611752</v>
       </c>
       <c r="J2">
-        <v>0.05881642346679698</v>
+        <v>0.05197722648611751</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>144.283282</v>
+        <v>150.538648</v>
       </c>
       <c r="N2">
-        <v>432.849846</v>
+        <v>451.615944</v>
       </c>
       <c r="O2">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="P2">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="Q2">
-        <v>104.9294877957993</v>
+        <v>94.82053090899998</v>
       </c>
       <c r="R2">
-        <v>944.3653901621939</v>
+        <v>853.384778181</v>
       </c>
       <c r="S2">
-        <v>0.0334982310798063</v>
+        <v>0.02933161555958044</v>
       </c>
       <c r="T2">
-        <v>0.0334982310798063</v>
+        <v>0.02933161555958043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7272463333333333</v>
+        <v>0.629875</v>
       </c>
       <c r="H3">
-        <v>2.181739</v>
+        <v>1.889625</v>
       </c>
       <c r="I3">
-        <v>0.05881642346679699</v>
+        <v>0.05197722648611752</v>
       </c>
       <c r="J3">
-        <v>0.05881642346679698</v>
+        <v>0.05197722648611751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>89.98324</v>
       </c>
       <c r="O3">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="P3">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="Q3">
-        <v>21.81332711715111</v>
+        <v>18.89273109833333</v>
       </c>
       <c r="R3">
-        <v>196.31994405436</v>
+        <v>170.034579885</v>
       </c>
       <c r="S3">
-        <v>0.00696379909727326</v>
+        <v>0.00584424406965902</v>
       </c>
       <c r="T3">
-        <v>0.006963799097273259</v>
+        <v>0.00584424406965902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7272463333333333</v>
+        <v>0.629875</v>
       </c>
       <c r="H4">
-        <v>2.181739</v>
+        <v>1.889625</v>
       </c>
       <c r="I4">
-        <v>0.05881642346679699</v>
+        <v>0.05197722648611752</v>
       </c>
       <c r="J4">
-        <v>0.05881642346679698</v>
+        <v>0.05197722648611751</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.60894133333333</v>
+        <v>33.76251433333334</v>
       </c>
       <c r="N4">
-        <v>94.826824</v>
+        <v>101.287543</v>
       </c>
       <c r="O4">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="P4">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="Q4">
-        <v>22.98748668521511</v>
+        <v>21.26616371570833</v>
       </c>
       <c r="R4">
-        <v>206.887380166936</v>
+        <v>191.395473441375</v>
       </c>
       <c r="S4">
-        <v>0.007338643855994632</v>
+        <v>0.006578437523566424</v>
       </c>
       <c r="T4">
-        <v>0.00733864385599463</v>
+        <v>0.006578437523566421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7272463333333333</v>
+        <v>0.629875</v>
       </c>
       <c r="H5">
-        <v>2.181739</v>
+        <v>1.889625</v>
       </c>
       <c r="I5">
-        <v>0.05881642346679699</v>
+        <v>0.05197722648611752</v>
       </c>
       <c r="J5">
-        <v>0.05881642346679698</v>
+        <v>0.05197722648611751</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.67461933333333</v>
+        <v>17.946055</v>
       </c>
       <c r="N5">
-        <v>44.023858</v>
+        <v>53.838165</v>
       </c>
       <c r="O5">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="P5">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="Q5">
-        <v>10.67206310322911</v>
+        <v>11.303771393125</v>
       </c>
       <c r="R5">
-        <v>96.04856792906199</v>
+        <v>101.733942538125</v>
       </c>
       <c r="S5">
-        <v>0.003407004488823543</v>
+        <v>0.003496688678053533</v>
       </c>
       <c r="T5">
-        <v>0.003407004488823542</v>
+        <v>0.003496688678053533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7272463333333333</v>
+        <v>0.629875</v>
       </c>
       <c r="H6">
-        <v>2.181739</v>
+        <v>1.889625</v>
       </c>
       <c r="I6">
-        <v>0.05881642346679699</v>
+        <v>0.05197722648611752</v>
       </c>
       <c r="J6">
-        <v>0.05881642346679698</v>
+        <v>0.05197722648611751</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.77231833333333</v>
+        <v>34.52108433333333</v>
       </c>
       <c r="N6">
-        <v>98.31695499999999</v>
+        <v>103.563253</v>
       </c>
       <c r="O6">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="P6">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="Q6">
-        <v>23.83354834274944</v>
+        <v>21.74396799445833</v>
       </c>
       <c r="R6">
-        <v>214.501935084745</v>
+        <v>195.695711950125</v>
       </c>
       <c r="S6">
-        <v>0.007608744944899248</v>
+        <v>0.0067262406552581</v>
       </c>
       <c r="T6">
-        <v>0.007608744944899246</v>
+        <v>0.006726240655258097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>11.23691433333333</v>
       </c>
       <c r="H7">
-        <v>33.710743</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I7">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041744</v>
       </c>
       <c r="J7">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>144.283282</v>
+        <v>150.538648</v>
       </c>
       <c r="N7">
-        <v>432.849846</v>
+        <v>451.615944</v>
       </c>
       <c r="O7">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="P7">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="Q7">
-        <v>1621.298879566175</v>
+        <v>1691.589891431821</v>
       </c>
       <c r="R7">
-        <v>14591.68991609558</v>
+        <v>15224.30902288639</v>
       </c>
       <c r="S7">
-        <v>0.5175918195925189</v>
+        <v>0.5232734293332366</v>
       </c>
       <c r="T7">
-        <v>0.5175918195925189</v>
+        <v>0.5232734293332365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>11.23691433333333</v>
       </c>
       <c r="H8">
-        <v>33.710743</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I8">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041744</v>
       </c>
       <c r="J8">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041742</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>89.98324</v>
       </c>
       <c r="O8">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="P8">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="Q8">
         <v>337.0446531052577</v>
       </c>
       <c r="R8">
-        <v>3033.40187794732</v>
+        <v>3033.401877947319</v>
       </c>
       <c r="S8">
-        <v>0.1075998740783434</v>
+        <v>0.1042607977040679</v>
       </c>
       <c r="T8">
-        <v>0.1075998740783434</v>
+        <v>0.1042607977040679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,13 +977,13 @@
         <v>11.23691433333333</v>
       </c>
       <c r="H9">
-        <v>33.710743</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I9">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041744</v>
       </c>
       <c r="J9">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041742</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.60894133333333</v>
+        <v>33.76251433333334</v>
       </c>
       <c r="N9">
-        <v>94.826824</v>
+        <v>101.287543</v>
       </c>
       <c r="O9">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="P9">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="Q9">
-        <v>355.1869659300258</v>
+        <v>379.3864812416054</v>
       </c>
       <c r="R9">
-        <v>3196.682693370232</v>
+        <v>3414.478331174448</v>
       </c>
       <c r="S9">
-        <v>0.1133917196318918</v>
+        <v>0.1173587440357236</v>
       </c>
       <c r="T9">
-        <v>0.1133917196318918</v>
+        <v>0.1173587440357235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,13 +1039,13 @@
         <v>11.23691433333333</v>
       </c>
       <c r="H10">
-        <v>33.710743</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I10">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041744</v>
       </c>
       <c r="J10">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041742</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.67461933333333</v>
+        <v>17.946055</v>
       </c>
       <c r="N10">
-        <v>44.023858</v>
+        <v>53.838165</v>
       </c>
       <c r="O10">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="P10">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="Q10">
-        <v>164.8974403229438</v>
+        <v>201.6582826562883</v>
       </c>
       <c r="R10">
-        <v>1484.076962906494</v>
+        <v>1814.924543906595</v>
       </c>
       <c r="S10">
-        <v>0.05264270965618565</v>
+        <v>0.0623806169884884</v>
       </c>
       <c r="T10">
-        <v>0.05264270965618565</v>
+        <v>0.06238061698848839</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,13 +1101,13 @@
         <v>11.23691433333333</v>
       </c>
       <c r="H11">
-        <v>33.710743</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I11">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041744</v>
       </c>
       <c r="J11">
-        <v>0.9087912603974913</v>
+        <v>0.9272691269041742</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.77231833333333</v>
+        <v>34.52108433333333</v>
       </c>
       <c r="N11">
-        <v>98.31695499999999</v>
+        <v>103.563253</v>
       </c>
       <c r="O11">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="P11">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="Q11">
-        <v>368.2597336163961</v>
+        <v>387.910467347442</v>
       </c>
       <c r="R11">
-        <v>3314.337602547565</v>
+        <v>3491.194206126978</v>
       </c>
       <c r="S11">
-        <v>0.1175651374385514</v>
+        <v>0.1199955388426579</v>
       </c>
       <c r="T11">
-        <v>0.1175651374385514</v>
+        <v>0.1199955388426578</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1296596666666666</v>
+        <v>0.2514986666666667</v>
       </c>
       <c r="H12">
-        <v>0.388979</v>
+        <v>0.7544960000000001</v>
       </c>
       <c r="I12">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="J12">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.283282</v>
+        <v>150.538648</v>
       </c>
       <c r="N12">
-        <v>432.849846</v>
+        <v>451.615944</v>
       </c>
       <c r="O12">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="P12">
-        <v>0.5695387292414457</v>
+        <v>0.5643166737150654</v>
       </c>
       <c r="Q12">
-        <v>18.70772224969266</v>
+        <v>37.86026925380267</v>
       </c>
       <c r="R12">
-        <v>168.369500247234</v>
+        <v>340.7424232842241</v>
       </c>
       <c r="S12">
-        <v>0.005972349775656929</v>
+        <v>0.01171162882224844</v>
       </c>
       <c r="T12">
-        <v>0.005972349775656929</v>
+        <v>0.01171162882224844</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1296596666666666</v>
+        <v>0.2514986666666667</v>
       </c>
       <c r="H13">
-        <v>0.388979</v>
+        <v>0.7544960000000001</v>
       </c>
       <c r="I13">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="J13">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>89.98324</v>
       </c>
       <c r="O13">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="P13">
-        <v>0.118398887365269</v>
+        <v>0.1124385517418854</v>
       </c>
       <c r="Q13">
-        <v>3.889065634662221</v>
+        <v>7.543554960782223</v>
       </c>
       <c r="R13">
-        <v>35.00159071195999</v>
+        <v>67.89199464704001</v>
       </c>
       <c r="S13">
-        <v>0.001241565379295257</v>
+        <v>0.002333509968158472</v>
       </c>
       <c r="T13">
-        <v>0.001241565379295257</v>
+        <v>0.002333509968158472</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,14 +1269,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1296596666666666</v>
+        <v>0.2514986666666667</v>
       </c>
       <c r="H14">
-        <v>0.388979</v>
+        <v>0.7544960000000001</v>
       </c>
       <c r="I14">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="J14">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.60894133333333</v>
+        <v>33.76251433333334</v>
       </c>
       <c r="N14">
-        <v>94.826824</v>
+        <v>101.287543</v>
       </c>
       <c r="O14">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="P14">
-        <v>0.1247720181445143</v>
+        <v>0.1265638428268858</v>
       </c>
       <c r="Q14">
-        <v>4.098404796966221</v>
+        <v>8.491227338147556</v>
       </c>
       <c r="R14">
-        <v>36.885643172696</v>
+        <v>76.421046043328</v>
       </c>
       <c r="S14">
-        <v>0.0013083958935789</v>
+        <v>0.002626661267595832</v>
       </c>
       <c r="T14">
-        <v>0.0013083958935789</v>
+        <v>0.002626661267595831</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1296596666666666</v>
+        <v>0.2514986666666667</v>
       </c>
       <c r="H15">
-        <v>0.388979</v>
+        <v>0.7544960000000001</v>
       </c>
       <c r="I15">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="J15">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.67461933333333</v>
+        <v>17.946055</v>
       </c>
       <c r="N15">
-        <v>44.023858</v>
+        <v>53.838165</v>
       </c>
       <c r="O15">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="P15">
-        <v>0.05792607384137975</v>
+        <v>0.06727347560546457</v>
       </c>
       <c r="Q15">
-        <v>1.902706251220222</v>
+        <v>4.513408904426667</v>
       </c>
       <c r="R15">
-        <v>17.124356260982</v>
+        <v>40.62068013984</v>
       </c>
       <c r="S15">
-        <v>0.0006074297608733641</v>
+        <v>0.001396169938922632</v>
       </c>
       <c r="T15">
-        <v>0.0006074297608733641</v>
+        <v>0.001396169938922632</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1296596666666666</v>
+        <v>0.2514986666666667</v>
       </c>
       <c r="H16">
-        <v>0.388979</v>
+        <v>0.7544960000000001</v>
       </c>
       <c r="I16">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="J16">
-        <v>0.0104862926242283</v>
+        <v>0.02075364660970813</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>32.77231833333333</v>
+        <v>34.52108433333333</v>
       </c>
       <c r="N16">
-        <v>98.31695499999999</v>
+        <v>103.563253</v>
       </c>
       <c r="O16">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="P16">
-        <v>0.1293642914073912</v>
+        <v>0.1294074561106987</v>
       </c>
       <c r="Q16">
-        <v>4.249247870993888</v>
+        <v>8.682006681720891</v>
       </c>
       <c r="R16">
-        <v>38.243230838945</v>
+        <v>78.138060135488</v>
       </c>
       <c r="S16">
-        <v>0.001356551814823846</v>
+        <v>0.002685676612782757</v>
       </c>
       <c r="T16">
-        <v>0.001356551814823846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.2481946666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.744584</v>
-      </c>
-      <c r="I17">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="J17">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>144.283282</v>
-      </c>
-      <c r="N17">
-        <v>432.849846</v>
-      </c>
-      <c r="O17">
-        <v>0.5695387292414457</v>
-      </c>
-      <c r="P17">
-        <v>0.5695387292414457</v>
-      </c>
-      <c r="Q17">
-        <v>35.81034108156266</v>
-      </c>
-      <c r="R17">
-        <v>322.293069734064</v>
-      </c>
-      <c r="S17">
-        <v>0.01143227805449071</v>
-      </c>
-      <c r="T17">
-        <v>0.0114322780544907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.2481946666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.744584</v>
-      </c>
-      <c r="I18">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="J18">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>29.99441333333333</v>
-      </c>
-      <c r="N18">
-        <v>89.98324</v>
-      </c>
-      <c r="O18">
-        <v>0.118398887365269</v>
-      </c>
-      <c r="P18">
-        <v>0.118398887365269</v>
-      </c>
-      <c r="Q18">
-        <v>7.444453419128888</v>
-      </c>
-      <c r="R18">
-        <v>67.00008077216</v>
-      </c>
-      <c r="S18">
-        <v>0.002376605720044475</v>
-      </c>
-      <c r="T18">
-        <v>0.002376605720044475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.2481946666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.744584</v>
-      </c>
-      <c r="I19">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="J19">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>31.60894133333333</v>
-      </c>
-      <c r="N19">
-        <v>94.826824</v>
-      </c>
-      <c r="O19">
-        <v>0.1247720181445143</v>
-      </c>
-      <c r="P19">
-        <v>0.1247720181445143</v>
-      </c>
-      <c r="Q19">
-        <v>7.845170657912889</v>
-      </c>
-      <c r="R19">
-        <v>70.60653592121601</v>
-      </c>
-      <c r="S19">
-        <v>0.002504532758900999</v>
-      </c>
-      <c r="T19">
-        <v>0.002504532758900999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.2481946666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.744584</v>
-      </c>
-      <c r="I20">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="J20">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>14.67461933333333</v>
-      </c>
-      <c r="N20">
-        <v>44.023858</v>
-      </c>
-      <c r="O20">
-        <v>0.05792607384137975</v>
-      </c>
-      <c r="P20">
-        <v>0.05792607384137975</v>
-      </c>
-      <c r="Q20">
-        <v>3.642162253896889</v>
-      </c>
-      <c r="R20">
-        <v>32.779460285072</v>
-      </c>
-      <c r="S20">
-        <v>0.001162742670093072</v>
-      </c>
-      <c r="T20">
-        <v>0.001162742670093072</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.2481946666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.744584</v>
-      </c>
-      <c r="I21">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="J21">
-        <v>0.02007287207617482</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>32.77231833333333</v>
-      </c>
-      <c r="N21">
-        <v>98.31695499999999</v>
-      </c>
-      <c r="O21">
-        <v>0.1293642914073912</v>
-      </c>
-      <c r="P21">
-        <v>0.1293642914073912</v>
-      </c>
-      <c r="Q21">
-        <v>8.133914624635555</v>
-      </c>
-      <c r="R21">
-        <v>73.20523162172</v>
-      </c>
-      <c r="S21">
-        <v>0.002596712872645565</v>
-      </c>
-      <c r="T21">
-        <v>0.002596712872645564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.02266633333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.067999</v>
-      </c>
-      <c r="I22">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="J22">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>144.283282</v>
-      </c>
-      <c r="N22">
-        <v>432.849846</v>
-      </c>
-      <c r="O22">
-        <v>0.5695387292414457</v>
-      </c>
-      <c r="P22">
-        <v>0.5695387292414457</v>
-      </c>
-      <c r="Q22">
-        <v>3.270372964239333</v>
-      </c>
-      <c r="R22">
-        <v>29.433356678154</v>
-      </c>
-      <c r="S22">
-        <v>0.001044050738972787</v>
-      </c>
-      <c r="T22">
-        <v>0.001044050738972787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.02266633333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.067999</v>
-      </c>
-      <c r="I23">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="J23">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>29.99441333333333</v>
-      </c>
-      <c r="N23">
-        <v>89.98324</v>
-      </c>
-      <c r="O23">
-        <v>0.118398887365269</v>
-      </c>
-      <c r="P23">
-        <v>0.118398887365269</v>
-      </c>
-      <c r="Q23">
-        <v>0.679863370751111</v>
-      </c>
-      <c r="R23">
-        <v>6.11877033676</v>
-      </c>
-      <c r="S23">
-        <v>0.000217043090312583</v>
-      </c>
-      <c r="T23">
-        <v>0.000217043090312583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.02266633333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.067999</v>
-      </c>
-      <c r="I24">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="J24">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>31.60894133333333</v>
-      </c>
-      <c r="N24">
-        <v>94.826824</v>
-      </c>
-      <c r="O24">
-        <v>0.1247720181445143</v>
-      </c>
-      <c r="P24">
-        <v>0.1247720181445143</v>
-      </c>
-      <c r="Q24">
-        <v>0.7164588005751111</v>
-      </c>
-      <c r="R24">
-        <v>6.448129205176</v>
-      </c>
-      <c r="S24">
-        <v>0.0002287260041479659</v>
-      </c>
-      <c r="T24">
-        <v>0.0002287260041479659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.02266633333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.067999</v>
-      </c>
-      <c r="I25">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="J25">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>14.67461933333333</v>
-      </c>
-      <c r="N25">
-        <v>44.023858</v>
-      </c>
-      <c r="O25">
-        <v>0.05792607384137975</v>
-      </c>
-      <c r="P25">
-        <v>0.05792607384137975</v>
-      </c>
-      <c r="Q25">
-        <v>0.3326198133491111</v>
-      </c>
-      <c r="R25">
-        <v>2.993578320142</v>
-      </c>
-      <c r="S25">
-        <v>0.0001061872654041167</v>
-      </c>
-      <c r="T25">
-        <v>0.0001061872654041167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.02266633333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.067999</v>
-      </c>
-      <c r="I26">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="J26">
-        <v>0.00183315143530859</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>32.77231833333333</v>
-      </c>
-      <c r="N26">
-        <v>98.31695499999999</v>
-      </c>
-      <c r="O26">
-        <v>0.1293642914073912</v>
-      </c>
-      <c r="P26">
-        <v>0.1293642914073912</v>
-      </c>
-      <c r="Q26">
-        <v>0.7428282914494444</v>
-      </c>
-      <c r="R26">
-        <v>6.685454623045</v>
-      </c>
-      <c r="S26">
-        <v>0.0002371443364711379</v>
-      </c>
-      <c r="T26">
-        <v>0.0002371443364711379</v>
+        <v>0.002685676612782756</v>
       </c>
     </row>
   </sheetData>
